--- a/data/trans_camb/P2A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Provincia-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna limitación</t>
+          <t>Hogares con personas con alguna condición</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,45; 23,1</t>
+          <t>6,68; 23,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,43; 24,59</t>
+          <t>8,21; 25,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,39; 29,02</t>
+          <t>11,65; 28,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 16,79</t>
+          <t>1,2; 16,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,8; 23,4</t>
+          <t>11,39; 23,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,69; 18,65</t>
+          <t>6,82; 18,4</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,85; 89,85</t>
+          <t>18,0; 84,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,42; 91,62</t>
+          <t>22,39; 90,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,53; 92,61</t>
+          <t>28,61; 92,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 54,01</t>
+          <t>2,84; 54,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,98; 77,09</t>
+          <t>31,47; 76,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,68; 61,29</t>
+          <t>19,35; 61,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 6,97</t>
+          <t>-6,72; 6,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 1,92</t>
+          <t>-10,32; 3,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,86; 42,66</t>
+          <t>30,68; 43,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 2,44</t>
+          <t>-10,33; 2,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,67; -0,26</t>
+          <t>-13,49; -0,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,63; 25,36</t>
+          <t>14,82; 25,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 2,92</t>
+          <t>-6,21; 3,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,88; -0,87</t>
+          <t>-9,74; -0,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,43; 31,94</t>
+          <t>24,15; 32,34</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 17,6</t>
+          <t>-14,46; 16,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,22; 4,93</t>
+          <t>-21,9; 8,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,72; 111,45</t>
+          <t>66,51; 108,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 4,65</t>
+          <t>-17,7; 4,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,78; -0,37</t>
+          <t>-22,52; -1,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,37; 48,49</t>
+          <t>24,53; 49,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 6,23</t>
+          <t>-12,02; 6,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,13; -1,89</t>
+          <t>-18,87; -1,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45,18; 68,38</t>
+          <t>46,51; 68,87</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 14,84</t>
+          <t>-0,26; 13,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 12,28</t>
+          <t>-3,06; 11,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,59; 45,19</t>
+          <t>30,28; 45,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 11,82</t>
+          <t>-2,38; 12,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 8,65</t>
+          <t>-6,66; 9,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,75; 26,44</t>
+          <t>13,0; 26,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 11,08</t>
+          <t>0,16; 11,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 7,83</t>
+          <t>-2,79; 7,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,48; 33,49</t>
+          <t>23,19; 33,14</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 53,53</t>
+          <t>-0,87; 50,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 44,62</t>
+          <t>-9,39; 43,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,53; 171,71</t>
+          <t>85,3; 170,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 29,51</t>
+          <t>-5,19; 31,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 21,77</t>
+          <t>-13,78; 22,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,25; 67,39</t>
+          <t>27,43; 68,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 32,3</t>
+          <t>0,15; 32,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 22,55</t>
+          <t>-6,87; 22,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>56,96; 97,67</t>
+          <t>55,83; 95,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 14,5</t>
+          <t>0,7; 13,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 14,74</t>
+          <t>-0,71; 14,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,49; 38,9</t>
+          <t>23,91; 38,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 11,46</t>
+          <t>-1,31; 11,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 10,13</t>
+          <t>-4,31; 10,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 15,44</t>
+          <t>-1,98; 14,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,21; 11,11</t>
+          <t>1,96; 11,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 10,58</t>
+          <t>0,3; 10,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,26; 23,79</t>
+          <t>12,85; 24,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,05; 47,46</t>
+          <t>2,61; 46,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,19; 47,68</t>
+          <t>-1,6; 45,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>60,1; 126,33</t>
+          <t>61,74; 128,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 24,84</t>
+          <t>-2,47; 24,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 21,95</t>
+          <t>-7,91; 22,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 33,48</t>
+          <t>-3,77; 32,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,89; 28,21</t>
+          <t>4,6; 28,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 26,74</t>
+          <t>0,61; 25,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,49; 61,32</t>
+          <t>28,88; 59,97</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 16,24</t>
+          <t>-2,68; 15,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 13,29</t>
+          <t>-7,67; 11,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>44,19; 58,96</t>
+          <t>44,32; 58,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 16,63</t>
+          <t>-3,69; 15,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 2,84</t>
+          <t>-14,74; 4,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,31; 44,54</t>
+          <t>30,75; 45,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,01; 13,77</t>
+          <t>-0,4; 12,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 5,84</t>
+          <t>-8,13; 5,2</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>38,94; 49,44</t>
+          <t>38,58; 49,04</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 41,79</t>
+          <t>-5,66; 41,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 37,55</t>
+          <t>-15,92; 30,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>89,81; 165,47</t>
+          <t>88,74; 162,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 32,04</t>
+          <t>-5,79; 32,39</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 5,78</t>
+          <t>-24,63; 8,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>48,68; 89,41</t>
+          <t>49,66; 95,06</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 30,36</t>
+          <t>-0,75; 28,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 13,07</t>
+          <t>-15,24; 11,58</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>72,05; 110,68</t>
+          <t>70,5; 108,17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 15,41</t>
+          <t>-1,44; 15,92</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,11; 18,7</t>
+          <t>2,14; 19,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>21,98; 38,16</t>
+          <t>22,45; 37,34</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,21; 16,92</t>
+          <t>0,53; 16,93</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>8,76; 26,03</t>
+          <t>9,92; 26,67</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,92; 31,54</t>
+          <t>17,3; 32,9</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,72; 13,47</t>
+          <t>1,76; 13,51</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>8,95; 20,42</t>
+          <t>8,1; 20,22</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>22,25; 32,5</t>
+          <t>21,75; 32,65</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 47,97</t>
+          <t>-3,44; 51,18</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,14; 56,95</t>
+          <t>4,62; 60,11</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>51,72; 118,53</t>
+          <t>54,84; 117,71</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,46; 45,82</t>
+          <t>1,24; 46,14</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>19,96; 72,35</t>
+          <t>22,04; 74,37</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>37,03; 87,42</t>
+          <t>37,52; 93,43</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>4,21; 37,66</t>
+          <t>4,42; 37,72</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>21,49; 57,44</t>
+          <t>19,45; 56,06</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>53,67; 93,75</t>
+          <t>51,41; 92,37</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 7,92</t>
+          <t>-2,41; 8,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 10,0</t>
+          <t>-1,16; 10,06</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>43,59; 53,81</t>
+          <t>43,36; 54,23</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 7,18</t>
+          <t>-3,85; 6,93</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 6,57</t>
+          <t>-4,05; 6,73</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>31,18; 44,11</t>
+          <t>32,36; 44,42</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 5,9</t>
+          <t>-1,74; 6,13</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 6,95</t>
+          <t>-1,0; 6,54</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>38,92; 47,43</t>
+          <t>39,11; 47,79</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 24,31</t>
+          <t>-6,65; 26,02</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 31,26</t>
+          <t>-3,13; 31,86</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>114,9; 171,49</t>
+          <t>114,62; 176,96</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 16,19</t>
+          <t>-7,75; 15,88</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 14,99</t>
+          <t>-8,1; 15,6</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>62,03; 99,57</t>
+          <t>64,68; 100,92</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 15,28</t>
+          <t>-3,97; 15,62</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 18,06</t>
+          <t>-2,25; 17,13</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>89,99; 121,91</t>
+          <t>90,7; 122,39</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 1,64</t>
+          <t>-8,46; 2,08</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 3,28</t>
+          <t>-6,94; 3,04</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>31,68; 42,58</t>
+          <t>31,7; 41,8</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-14,32; -4,26</t>
+          <t>-14,95; -4,44</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-10,29; -0,42</t>
+          <t>-10,53; -0,84</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>11,23; 20,84</t>
+          <t>11,54; 21,12</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-10,43; -2,64</t>
+          <t>-10,01; -2,69</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-7,69; -0,36</t>
+          <t>-7,46; -0,17</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>22,93; 30,39</t>
+          <t>22,67; 30,0</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 4,02</t>
+          <t>-18,73; 4,82</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 7,78</t>
+          <t>-15,26; 7,46</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>66,52; 103,85</t>
+          <t>69,07; 103,86</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-25,38; -8,17</t>
+          <t>-26,59; -8,64</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-18,49; -0,91</t>
+          <t>-18,6; -1,46</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>20,05; 41,35</t>
+          <t>20,18; 41,78</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-20,39; -5,64</t>
+          <t>-19,78; -5,73</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-15,21; -0,77</t>
+          <t>-14,58; -0,09</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>44,89; 65,16</t>
+          <t>44,42; 63,7</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,97</t>
+          <t>0,98; 5,75</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,62</t>
+          <t>0,83; 5,43</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>35,07; 39,83</t>
+          <t>35,23; 39,82</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 3,49</t>
+          <t>-1,2; 3,6</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,31</t>
+          <t>-1,33; 3,37</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>19,77; 25,51</t>
+          <t>19,75; 25,5</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,93</t>
+          <t>0,56; 3,94</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,82</t>
+          <t>0,4; 4,04</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>28,04; 31,63</t>
+          <t>27,95; 31,69</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2,42; 16,38</t>
+          <t>2,57; 15,78</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>1,32; 15,3</t>
+          <t>2,27; 15,08</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>89,15; 109,05</t>
+          <t>89,68; 109,73</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 7,4</t>
+          <t>-2,37; 7,52</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 6,92</t>
+          <t>-2,64; 7,06</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>39,4; 53,65</t>
+          <t>39,06; 53,13</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,19</t>
+          <t>1,21; 9,24</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>0,94; 9,0</t>
+          <t>0,87; 9,43</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>62,92; 74,0</t>
+          <t>62,54; 74,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,68; 23,45</t>
+          <t>6,77; 22,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 25,2</t>
+          <t>7,68; 24,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,65; 28,6</t>
+          <t>12,25; 29,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 16,87</t>
+          <t>0,88; 16,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,39; 23,36</t>
+          <t>11,34; 23,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 18,4</t>
+          <t>7,13; 18,28</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,0; 84,28</t>
+          <t>18,63; 82,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,39; 90,79</t>
+          <t>21,68; 88,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,61; 92,58</t>
+          <t>30,26; 97,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 54,36</t>
+          <t>1,76; 54,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,47; 76,12</t>
+          <t>30,25; 75,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,35; 61,63</t>
+          <t>19,88; 61,86</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 6,39</t>
+          <t>-6,29; 6,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 3,0</t>
+          <t>-10,79; 1,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,68; 43,13</t>
+          <t>30,65; 42,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 2,57</t>
+          <t>-9,61; 2,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,49; -0,66</t>
+          <t>-12,99; -0,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,82; 25,71</t>
+          <t>14,71; 25,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 3,04</t>
+          <t>-6,13; 2,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,74; -0,77</t>
+          <t>-10,17; -0,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,15; 32,34</t>
+          <t>24,18; 32,29</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 16,36</t>
+          <t>-13,4; 17,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 8,02</t>
+          <t>-23,58; 4,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>66,51; 108,67</t>
+          <t>66,11; 109,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 4,86</t>
+          <t>-16,57; 4,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,52; -1,17</t>
+          <t>-22,35; -1,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,53; 49,21</t>
+          <t>24,64; 49,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 6,4</t>
+          <t>-11,85; 5,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,87; -1,57</t>
+          <t>-19,75; -1,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,51; 68,87</t>
+          <t>47,03; 69,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 13,82</t>
+          <t>-1,54; 13,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 11,5</t>
+          <t>-2,96; 11,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,28; 45,07</t>
+          <t>30,96; 45,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 12,35</t>
+          <t>-3,04; 12,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 9,09</t>
+          <t>-6,97; 8,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,0; 26,63</t>
+          <t>12,52; 25,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 11,39</t>
+          <t>0,23; 11,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 7,92</t>
+          <t>-2,92; 8,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,19; 33,14</t>
+          <t>23,68; 33,84</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 50,5</t>
+          <t>-4,43; 50,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 43,34</t>
+          <t>-8,98; 44,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,3; 170,38</t>
+          <t>90,0; 173,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 31,78</t>
+          <t>-6,21; 30,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 22,88</t>
+          <t>-15,19; 22,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,43; 68,28</t>
+          <t>26,04; 65,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,15; 32,6</t>
+          <t>0,49; 32,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 22,94</t>
+          <t>-7,35; 22,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>55,83; 95,84</t>
+          <t>58,39; 99,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 13,96</t>
+          <t>1,87; 13,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 14,1</t>
+          <t>-0,25; 13,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,91; 38,98</t>
+          <t>23,21; 38,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 11,26</t>
+          <t>-1,46; 11,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 10,03</t>
+          <t>-4,88; 9,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 14,82</t>
+          <t>-0,34; 15,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 11,0</t>
+          <t>1,78; 11,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 10,27</t>
+          <t>-0,15; 10,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,85; 24,0</t>
+          <t>13,0; 24,54</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,61; 46,01</t>
+          <t>5,21; 44,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 45,94</t>
+          <t>-0,79; 44,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>61,74; 128,61</t>
+          <t>60,33; 124,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 24,86</t>
+          <t>-2,71; 25,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 22,37</t>
+          <t>-9,72; 21,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 32,44</t>
+          <t>-0,69; 35,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,6; 28,38</t>
+          <t>3,83; 27,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,61; 25,88</t>
+          <t>-0,35; 26,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,88; 59,97</t>
+          <t>29,29; 62,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 15,64</t>
+          <t>-3,11; 17,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 11,94</t>
+          <t>-7,94; 12,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>44,32; 58,93</t>
+          <t>44,92; 59,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 15,81</t>
+          <t>-2,75; 16,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 4,48</t>
+          <t>-15,78; 2,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,75; 45,5</t>
+          <t>30,14; 44,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 12,78</t>
+          <t>-0,46; 13,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 5,2</t>
+          <t>-7,94; 5,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>38,58; 49,04</t>
+          <t>39,62; 49,69</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 41,93</t>
+          <t>-7,0; 43,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 30,85</t>
+          <t>-16,82; 31,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>88,74; 162,22</t>
+          <t>91,44; 163,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 32,39</t>
+          <t>-4,36; 32,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-24,63; 8,46</t>
+          <t>-26,29; 5,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>49,66; 95,06</t>
+          <t>48,34; 90,39</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 28,02</t>
+          <t>-0,57; 29,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 11,58</t>
+          <t>-15,11; 12,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>70,5; 108,17</t>
+          <t>73,03; 111,66</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 15,92</t>
+          <t>-0,84; 16,6</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,14; 19,5</t>
+          <t>2,17; 19,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>22,45; 37,34</t>
+          <t>21,23; 37,41</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,53; 16,93</t>
+          <t>0,53; 17,22</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,92; 26,67</t>
+          <t>9,76; 25,71</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,3; 32,9</t>
+          <t>17,4; 32,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,76; 13,51</t>
+          <t>1,8; 13,53</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>8,1; 20,22</t>
+          <t>8,33; 20,05</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>21,75; 32,65</t>
+          <t>21,81; 32,19</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 51,18</t>
+          <t>-2,19; 53,46</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>4,62; 60,11</t>
+          <t>5,49; 61,13</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>54,84; 117,71</t>
+          <t>51,1; 118,64</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,24; 46,14</t>
+          <t>1,07; 47,55</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>22,04; 74,37</t>
+          <t>21,47; 70,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>37,52; 93,43</t>
+          <t>37,76; 89,7</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>4,42; 37,72</t>
+          <t>4,44; 38,93</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>19,45; 56,06</t>
+          <t>20,44; 56,38</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>51,41; 92,37</t>
+          <t>51,61; 90,28</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 8,46</t>
+          <t>-2,84; 8,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 10,06</t>
+          <t>-1,55; 9,61</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>43,36; 54,23</t>
+          <t>44,15; 54,23</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 6,93</t>
+          <t>-4,0; 7,23</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 6,73</t>
+          <t>-4,08; 6,95</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>32,36; 44,42</t>
+          <t>31,78; 43,84</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 6,13</t>
+          <t>-1,75; 6,48</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 6,54</t>
+          <t>-1,14; 6,7</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>39,11; 47,79</t>
+          <t>38,87; 47,88</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 26,02</t>
+          <t>-7,75; 27,72</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 31,86</t>
+          <t>-4,31; 30,64</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>114,62; 176,96</t>
+          <t>115,74; 175,85</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 15,88</t>
+          <t>-8,26; 16,15</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 15,6</t>
+          <t>-8,41; 15,78</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>64,68; 100,92</t>
+          <t>62,41; 97,73</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 15,62</t>
+          <t>-4,18; 16,75</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 17,13</t>
+          <t>-2,56; 17,8</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>90,7; 122,39</t>
+          <t>89,53; 122,57</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 2,08</t>
+          <t>-7,95; 1,69</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 3,04</t>
+          <t>-7,0; 2,8</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>31,7; 41,8</t>
+          <t>31,81; 42,22</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-14,95; -4,44</t>
+          <t>-14,59; -4,37</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-10,53; -0,84</t>
+          <t>-10,67; -0,61</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>11,54; 21,12</t>
+          <t>11,51; 21,05</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -2,69</t>
+          <t>-9,88; -2,46</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -0,17</t>
+          <t>-7,46; -0,23</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>22,67; 30,0</t>
+          <t>23,05; 30,18</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 4,82</t>
+          <t>-17,29; 3,97</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 7,46</t>
+          <t>-15,14; 6,93</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>69,07; 103,86</t>
+          <t>69,1; 104,52</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-26,59; -8,64</t>
+          <t>-25,73; -8,45</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-18,6; -1,46</t>
+          <t>-18,75; -1,09</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>20,18; 41,78</t>
+          <t>20,31; 41,37</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-19,78; -5,73</t>
+          <t>-19,59; -5,24</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-14,58; -0,09</t>
+          <t>-14,69; -0,5</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>44,42; 63,7</t>
+          <t>45,33; 64,65</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,75</t>
+          <t>0,82; 5,71</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,43</t>
+          <t>0,8; 5,52</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>35,23; 39,82</t>
+          <t>35,13; 39,83</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,6</t>
+          <t>-1,12; 3,69</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,37</t>
+          <t>-1,4; 3,63</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>19,75; 25,5</t>
+          <t>19,9; 25,27</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,94</t>
+          <t>0,51; 3,94</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,04</t>
+          <t>0,39; 3,76</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>27,95; 31,69</t>
+          <t>27,81; 31,62</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2,57; 15,78</t>
+          <t>2,06; 15,58</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>2,27; 15,08</t>
+          <t>2,2; 15,1</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>89,68; 109,73</t>
+          <t>89,77; 109,18</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 7,52</t>
+          <t>-2,23; 7,71</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 7,06</t>
+          <t>-2,77; 7,74</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>39,06; 53,13</t>
+          <t>39,25; 52,63</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>1,21; 9,24</t>
+          <t>1,15; 9,26</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,43</t>
+          <t>0,93; 8,83</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>62,54; 74,09</t>
+          <t>62,32; 74,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,77; 22,95</t>
+          <t>6,45; 23,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,68; 24,5</t>
+          <t>8,43; 24,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,25; 29,19</t>
+          <t>12,39; 29,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 16,49</t>
+          <t>1,55; 16,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,34; 23,13</t>
+          <t>10,8; 23,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,13; 18,28</t>
+          <t>6,69; 18,65</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,63; 82,45</t>
+          <t>18,85; 89,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,68; 88,98</t>
+          <t>24,42; 91,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,26; 97,96</t>
+          <t>29,53; 92,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 54,32</t>
+          <t>3,53; 54,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,25; 75,53</t>
+          <t>28,98; 77,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,88; 61,86</t>
+          <t>17,68; 61,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 6,79</t>
+          <t>-5,46; 6,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 1,86</t>
+          <t>-10,6; 1,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,65; 42,8</t>
+          <t>29,86; 42,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 2,57</t>
+          <t>-9,95; 2,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,99; -0,63</t>
+          <t>-12,67; -0,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,71; 25,8</t>
+          <t>14,63; 25,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 2,62</t>
+          <t>-6,25; 2,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,17; -0,59</t>
+          <t>-9,88; -0,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,18; 32,29</t>
+          <t>23,43; 31,94</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 17,29</t>
+          <t>-11,9; 17,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 4,78</t>
+          <t>-23,22; 4,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>66,11; 109,58</t>
+          <t>64,72; 111,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 4,94</t>
+          <t>-16,9; 4,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,35; -1,39</t>
+          <t>-21,78; -0,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,64; 49,38</t>
+          <t>24,37; 48,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 5,55</t>
+          <t>-12,04; 6,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,75; -1,28</t>
+          <t>-19,13; -1,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,03; 69,08</t>
+          <t>45,18; 68,38</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 13,75</t>
+          <t>-0,54; 14,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 11,55</t>
+          <t>-2,79; 12,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,96; 45,41</t>
+          <t>30,59; 45,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 12,2</t>
+          <t>-2,86; 11,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 8,93</t>
+          <t>-6,3; 8,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,52; 25,94</t>
+          <t>12,75; 26,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 11,32</t>
+          <t>0,26; 11,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 8,02</t>
+          <t>-2,94; 7,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,68; 33,84</t>
+          <t>23,48; 33,49</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 50,51</t>
+          <t>-1,54; 53,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 44,62</t>
+          <t>-8,35; 44,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,0; 173,8</t>
+          <t>87,53; 171,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 30,73</t>
+          <t>-5,96; 29,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 22,27</t>
+          <t>-13,44; 21,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,04; 65,64</t>
+          <t>26,25; 67,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,49; 32,29</t>
+          <t>0,58; 32,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 22,66</t>
+          <t>-7,23; 22,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,39; 99,37</t>
+          <t>56,96; 97,67</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 13,38</t>
+          <t>1,61; 14,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 13,87</t>
+          <t>0,12; 14,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,21; 38,93</t>
+          <t>23,49; 38,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 11,35</t>
+          <t>-1,0; 11,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 9,77</t>
+          <t>-4,12; 10,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 15,91</t>
+          <t>-0,78; 15,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 11,1</t>
+          <t>2,21; 11,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 10,35</t>
+          <t>-0,25; 10,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,0; 24,54</t>
+          <t>12,26; 23,79</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,21; 44,77</t>
+          <t>4,05; 47,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 44,14</t>
+          <t>0,19; 47,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>60,33; 124,61</t>
+          <t>60,1; 126,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 25,19</t>
+          <t>-1,99; 24,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 21,01</t>
+          <t>-8,16; 21,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 35,04</t>
+          <t>-1,3; 33,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,83; 27,98</t>
+          <t>4,89; 28,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 26,42</t>
+          <t>-0,58; 26,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,29; 62,92</t>
+          <t>28,49; 61,32</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 17,0</t>
+          <t>-2,87; 16,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 12,0</t>
+          <t>-6,79; 13,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>44,92; 59,05</t>
+          <t>44,19; 58,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 16,63</t>
+          <t>-2,95; 16,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 2,85</t>
+          <t>-15,75; 2,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,14; 44,56</t>
+          <t>30,31; 44,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 13,41</t>
+          <t>0,01; 13,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 5,65</t>
+          <t>-7,66; 5,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>39,62; 49,69</t>
+          <t>38,94; 49,44</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 43,63</t>
+          <t>-5,99; 41,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,82; 31,03</t>
+          <t>-14,08; 37,55</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>91,44; 163,3</t>
+          <t>89,81; 165,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 32,8</t>
+          <t>-5,11; 32,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 5,62</t>
+          <t>-25,9; 5,78</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>48,34; 90,39</t>
+          <t>48,68; 89,41</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 29,02</t>
+          <t>-0,22; 30,36</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 12,64</t>
+          <t>-14,74; 13,07</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>73,03; 111,66</t>
+          <t>72,05; 110,68</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 16,6</t>
+          <t>-1,89; 15,41</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,17; 19,21</t>
+          <t>2,11; 18,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>21,23; 37,41</t>
+          <t>21,98; 38,16</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,53; 17,22</t>
+          <t>0,21; 16,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,76; 25,71</t>
+          <t>8,76; 26,03</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,4; 32,69</t>
+          <t>16,92; 31,54</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,8; 13,53</t>
+          <t>1,72; 13,47</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>8,33; 20,05</t>
+          <t>8,95; 20,42</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>21,81; 32,19</t>
+          <t>22,25; 32,5</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 53,46</t>
+          <t>-5,74; 47,97</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,49; 61,13</t>
+          <t>5,14; 56,95</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>51,1; 118,64</t>
+          <t>51,72; 118,53</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,07; 47,55</t>
+          <t>0,46; 45,82</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>21,47; 70,57</t>
+          <t>19,96; 72,35</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>37,76; 89,7</t>
+          <t>37,03; 87,42</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>4,44; 38,93</t>
+          <t>4,21; 37,66</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>20,44; 56,38</t>
+          <t>21,49; 57,44</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>51,61; 90,28</t>
+          <t>53,67; 93,75</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 8,61</t>
+          <t>-2,62; 7,92</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 9,61</t>
+          <t>-0,89; 10,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>44,15; 54,23</t>
+          <t>43,59; 53,81</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 7,23</t>
+          <t>-4,1; 7,18</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 6,95</t>
+          <t>-4,8; 6,57</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>31,78; 43,84</t>
+          <t>31,18; 44,11</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 6,48</t>
+          <t>-1,73; 5,9</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 6,7</t>
+          <t>-1,05; 6,95</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>38,87; 47,88</t>
+          <t>38,92; 47,43</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 27,72</t>
+          <t>-7,12; 24,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 30,64</t>
+          <t>-2,56; 31,26</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>115,74; 175,85</t>
+          <t>114,9; 171,49</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 16,15</t>
+          <t>-8,04; 16,19</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 15,78</t>
+          <t>-9,65; 14,99</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>62,41; 97,73</t>
+          <t>62,03; 99,57</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 16,75</t>
+          <t>-4,07; 15,28</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 17,8</t>
+          <t>-2,28; 18,06</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>89,53; 122,57</t>
+          <t>89,99; 121,91</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 1,69</t>
+          <t>-8,58; 1,64</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 2,8</t>
+          <t>-7,22; 3,28</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>31,81; 42,22</t>
+          <t>31,68; 42,58</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-14,59; -4,37</t>
+          <t>-14,32; -4,26</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -0,61</t>
+          <t>-10,29; -0,42</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>11,51; 21,05</t>
+          <t>11,23; 20,84</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-9,88; -2,46</t>
+          <t>-10,43; -2,64</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -0,23</t>
+          <t>-7,69; -0,36</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>23,05; 30,18</t>
+          <t>22,93; 30,39</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 3,97</t>
+          <t>-18,75; 4,02</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 6,93</t>
+          <t>-15,69; 7,78</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>69,1; 104,52</t>
+          <t>66,52; 103,85</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-25,73; -8,45</t>
+          <t>-25,38; -8,17</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-18,75; -1,09</t>
+          <t>-18,49; -0,91</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>20,31; 41,37</t>
+          <t>20,05; 41,35</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-19,59; -5,24</t>
+          <t>-20,39; -5,64</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-14,69; -0,5</t>
+          <t>-15,21; -0,77</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>45,33; 64,65</t>
+          <t>44,89; 65,16</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,71</t>
+          <t>0,93; 5,97</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,52</t>
+          <t>0,5; 5,62</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>35,13; 39,83</t>
+          <t>35,07; 39,83</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 3,69</t>
+          <t>-1,32; 3,49</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 3,63</t>
+          <t>-1,64; 3,31</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>19,9; 25,27</t>
+          <t>19,77; 25,51</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,94</t>
+          <t>0,47; 3,93</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,76</t>
+          <t>0,4; 3,82</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>27,81; 31,62</t>
+          <t>28,04; 31,63</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2,06; 15,58</t>
+          <t>2,42; 16,38</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>2,2; 15,1</t>
+          <t>1,32; 15,3</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>89,77; 109,18</t>
+          <t>89,15; 109,05</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 7,71</t>
+          <t>-2,61; 7,4</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,74</t>
+          <t>-3,22; 6,92</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>39,25; 52,63</t>
+          <t>39,4; 53,65</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>1,15; 9,26</t>
+          <t>1,07; 9,19</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,83</t>
+          <t>0,94; 9,0</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>62,32; 74,46</t>
+          <t>62,92; 74,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Provincia-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,98</t>
+          <t>13,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,63</t>
+          <t>21,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>26,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,97</t>
+          <t>16,67</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>18,44</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>22,13</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,48</t>
+          <t>15,17</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,72</t>
+          <t>20,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,82; 25,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,45; 23,1</t>
+          <t>4,44; 21,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,43; 24,59</t>
+          <t>13,06; 30,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,57; 33,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,39; 29,02</t>
+          <t>7,92; 24,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 16,79</t>
+          <t>10,72; 26,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,13; 27,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,8; 23,4</t>
+          <t>8,88; 21,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,69; 18,65</t>
+          <t>14,0; 26,27</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>47,7%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52,97%</t>
+          <t>50,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,51%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>35,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,98%</t>
+          <t>31,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,82%</t>
+          <t>42,07%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,71; 67,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,85; 89,85</t>
+          <t>9,5; 57,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,42; 91,62</t>
+          <t>26,57; 78,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,98; 72,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,53; 92,61</t>
+          <t>13,62; 52,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 54,01</t>
+          <t>18,64; 56,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,81; 62,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,98; 77,09</t>
+          <t>17,6; 48,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,68; 61,29</t>
+          <t>27,38; 59,42</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36,62</t>
+          <t>-6,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,74</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,95</t>
+          <t>-19,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>8,19</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>28,16</t>
+          <t>-13,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 6,97</t>
+          <t>-0,3; 12,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 1,92</t>
+          <t>4,25; 17,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,86; 42,66</t>
+          <t>-13,96; 0,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 2,44</t>
+          <t>-1,08; 10,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,67; -0,26</t>
+          <t>-0,67; 11,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,63; 25,36</t>
+          <t>-25,64; -14,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 2,92</t>
+          <t>0,91; 10,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,88; -0,87</t>
+          <t>3,66; 12,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,43; 31,94</t>
+          <t>-17,68; -8,72</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,49%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>85,85%</t>
+          <t>-13,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,54%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,05%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>-30,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-10,86%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>57,03%</t>
+          <t>-23,62%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 17,6</t>
+          <t>-0,58; 28,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,22; 4,93</t>
+          <t>8,23; 39,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,72; 111,45</t>
+          <t>-27,84; 1,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 4,65</t>
+          <t>-1,53; 16,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,78; -0,37</t>
+          <t>-0,93; 17,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,37; 48,49</t>
+          <t>-37,87; -22,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 6,23</t>
+          <t>1,5; 18,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,13; -1,89</t>
+          <t>6,18; 23,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45,18; 68,38</t>
+          <t>-30,44; -16,2</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>14,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>38,01</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,66</t>
+          <t>-16,99</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>28,47</t>
+          <t>-6,68</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 14,84</t>
+          <t>7,59; 22,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 12,28</t>
+          <t>0,38; 15,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,59; 45,19</t>
+          <t>-3,46; 11,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 11,82</t>
+          <t>-7,21; 7,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 8,65</t>
+          <t>-13,34; 1,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,75; 26,44</t>
+          <t>-23,7; -10,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 11,08</t>
+          <t>2,33; 13,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 7,83</t>
+          <t>-4,68; 6,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,48; 33,49</t>
+          <t>-12,12; -1,41</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>123,29%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>-9,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>44,89%</t>
+          <t>-24,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>75,97%</t>
+          <t>-11,78%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 53,53</t>
+          <t>15,73; 57,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 44,62</t>
+          <t>0,7; 38,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,53; 171,71</t>
+          <t>-6,83; 28,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 29,51</t>
+          <t>-10,11; 11,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 21,77</t>
+          <t>-18,47; 2,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,25; 67,39</t>
+          <t>-33,31; -15,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 32,3</t>
+          <t>3,93; 24,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 22,55</t>
+          <t>-7,92; 11,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>56,96; 97,67</t>
+          <t>-20,51; -2,51</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,98</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>31,1</t>
+          <t>-7,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>-28,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,74</t>
+          <t>-18,56</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 14,5</t>
+          <t>-0,18; 14,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 14,74</t>
+          <t>-1,03; 13,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,49; 38,9</t>
+          <t>-15,65; 0,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 11,46</t>
+          <t>-4,7; 8,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 10,13</t>
+          <t>-4,52; 8,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 15,44</t>
+          <t>-45,3; -16,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,21; 11,11</t>
+          <t>-0,54; 9,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 10,58</t>
+          <t>-0,62; 9,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,26; 23,79</t>
+          <t>-30,19; -11,06</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>90,21%</t>
+          <t>-13,79%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>-41,44%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>44,66%</t>
+          <t>-30,49%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,05; 47,46</t>
+          <t>-0,32; 30,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,19; 47,68</t>
+          <t>-2,57; 28,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>60,1; 126,33</t>
+          <t>-28,84; 1,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 24,84</t>
+          <t>-6,42; 12,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 21,95</t>
+          <t>-6,15; 12,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 33,48</t>
+          <t>-67,47; -25,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,89; 28,21</t>
+          <t>-0,81; 16,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 26,74</t>
+          <t>-0,98; 16,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,49; 61,32</t>
+          <t>-48,5; -18,82</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>51,64</t>
+          <t>-36,79</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>16,42</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,56</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>37,54</t>
+          <t>-50,96</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>11,6</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>44,44</t>
+          <t>-43,79</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 16,24</t>
+          <t>-3,18; 16,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 13,29</t>
+          <t>-7,2; 13,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>44,19; 58,96</t>
+          <t>-45,22; -29,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 16,63</t>
+          <t>7,41; 24,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 2,84</t>
+          <t>-10,33; 7,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,31; 44,54</t>
+          <t>-62,41; -43,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,01; 13,77</t>
+          <t>4,55; 18,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 5,84</t>
+          <t>-5,97; 7,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>38,94; 49,44</t>
+          <t>-50,2; -38,11</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>120,69%</t>
+          <t>-73,85%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-9,97%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>-77,33%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-3,19%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>90,11%</t>
+          <t>-75,57%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 41,79</t>
+          <t>-5,81; 35,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 37,55</t>
+          <t>-12,7; 30,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>89,81; 165,47</t>
+          <t>-81,56; -64,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 32,04</t>
+          <t>10,66; 40,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 5,78</t>
+          <t>-14,57; 12,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>48,68; 89,41</t>
+          <t>-87,9; -69,91</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 30,36</t>
+          <t>7,42; 34,09</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 13,07</t>
+          <t>-9,79; 13,68</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>72,05; 110,68</t>
+          <t>-83,32; -69,97</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>11,76</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>10,58</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>29,87</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>8,35</t>
+          <t>13,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>17,86</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>24,7</t>
+          <t>-7,08</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>7,74</t>
+          <t>12,37</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>14,3</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>27,26</t>
+          <t>-0,3</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 15,41</t>
+          <t>3,16; 20,09</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,11; 18,7</t>
+          <t>-9,71; 7,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>21,98; 38,16</t>
+          <t>-1,7; 15,57</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,21; 16,92</t>
+          <t>4,31; 20,32</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>8,76; 26,03</t>
+          <t>-12,41; 5,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,92; 31,54</t>
+          <t>-14,68; 1,14</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,72; 13,47</t>
+          <t>6,52; 18,11</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>8,95; 20,42</t>
+          <t>-7,36; 4,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>22,25; 32,5</t>
+          <t>-6,5; 5,03</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>-2,61%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>81,73%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>-3,97%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>60,48%</t>
+          <t>-10,97%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>70,39%</t>
+          <t>-0,53%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 47,97</t>
+          <t>5,68; 42,57</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,14; 56,95</t>
+          <t>-17,77; 15,6</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>51,72; 118,53</t>
+          <t>-3,17; 33,42</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,46; 45,82</t>
+          <t>6,39; 33,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>19,96; 72,35</t>
+          <t>-17,87; 8,95</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>37,03; 87,42</t>
+          <t>-21,36; 1,89</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>4,21; 37,66</t>
+          <t>10,72; 33,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>21,49; 57,44</t>
+          <t>-12,09; 7,98</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>53,67; 93,75</t>
+          <t>-10,61; 9,29</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>12,29</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>48,81</t>
+          <t>-12,54</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>36,81</t>
+          <t>-7,58</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>9,78</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>42,72</t>
+          <t>-8,62</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 7,92</t>
+          <t>6,83; 18,27</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 10,0</t>
+          <t>-6,29; 5,16</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>43,59; 53,81</t>
+          <t>-18,53; -6,7</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 7,18</t>
+          <t>2,08; 12,53</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 6,57</t>
+          <t>-10,69; 0,47</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>31,18; 44,11</t>
+          <t>-23,98; 16,19</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 5,9</t>
+          <t>5,67; 13,6</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 6,95</t>
+          <t>-6,96; 1,28</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>38,92; 47,43</t>
+          <t>-18,67; 12,11</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>-2,25%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>141,57%</t>
+          <t>-27,47%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>-7,92%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>78,38%</t>
+          <t>-12,35%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>-5,47%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>104,62%</t>
+          <t>-16,07%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 24,31</t>
+          <t>13,84; 42,26</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 31,26</t>
+          <t>-12,96; 11,82</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>114,9; 171,49</t>
+          <t>-38,31; -15,21</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 16,19</t>
+          <t>3,25; 21,56</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 14,99</t>
+          <t>-16,46; 0,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>62,03; 99,57</t>
+          <t>-38,61; 26,36</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 15,28</t>
+          <t>10,01; 26,56</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 18,06</t>
+          <t>-12,55; 2,46</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>89,99; 121,91</t>
+          <t>-34,27; 22,7</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-26,57</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-4,63</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
           <t>-2,15</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>36,61</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>-9,3</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>-5,63</t>
-        </is>
-      </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>16,34</t>
+          <t>-18,14</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>26,31</t>
+          <t>-23,82</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 1,64</t>
+          <t>-9,64; 1,27</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 3,28</t>
+          <t>-5,63; 5,19</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>31,68; 42,58</t>
+          <t>-40,91; -15,95</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-14,32; -4,26</t>
+          <t>-9,22; 0,28</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-10,29; -0,42</t>
+          <t>-7,19; 2,52</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>11,23; 20,84</t>
+          <t>-22,82; -13,31</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-10,43; -2,64</t>
+          <t>-8,21; -0,79</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-7,69; -0,36</t>
+          <t>-4,62; 2,54</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>22,93; 30,39</t>
+          <t>-36,65; -16,82</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-7,5%</t>
+          <t>-7,17%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-4,94%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>84,19%</t>
+          <t>-51,83%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-17,24%</t>
+          <t>-7,32%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-10,43%</t>
+          <t>-3,4%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>-28,67%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>-13,01%</t>
+          <t>-7,24%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>-8,03%</t>
+          <t>-1,93%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>53,86%</t>
+          <t>-41,48%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 4,02</t>
+          <t>-17,56; 2,51</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 7,78</t>
+          <t>-10,38; 10,65</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>66,52; 103,85</t>
+          <t>-77,38; -31,78</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-25,38; -8,17</t>
+          <t>-14,04; 0,44</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-18,49; -0,91</t>
+          <t>-11,03; 4,14</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>20,05; 41,35</t>
+          <t>-34,69; -21,92</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-20,39; -5,64</t>
+          <t>-13,9; -1,43</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-15,21; -0,77</t>
+          <t>-7,96; 4,51</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>44,89; 65,16</t>
+          <t>-63,57; -29,6</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>37,53</t>
+          <t>-10,03</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>22,15</t>
+          <t>-15,92</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>29,62</t>
+          <t>-12,92</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,97</t>
+          <t>5,07; 9,89</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,62</t>
+          <t>1,38; 6,46</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>35,07; 39,83</t>
+          <t>-19,79; -6,13</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 3,49</t>
+          <t>3,14; 7,82</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,31</t>
+          <t>-2,34; 2,34</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>19,77; 25,51</t>
+          <t>-19,94; -6,5</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,93</t>
+          <t>4,62; 8,06</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,82</t>
+          <t>0,32; 3,68</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>28,04; 31,63</t>
+          <t>-17,11; -8,35</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>-20,84%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>-24,93%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>68,06%</t>
+          <t>-23,03%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2,42; 16,38</t>
+          <t>10,08; 21,02</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>1,32; 15,3</t>
+          <t>2,89; 13,8</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>89,15; 109,05</t>
+          <t>-40,43; -12,86</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 7,4</t>
+          <t>4,75; 12,4</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 6,92</t>
+          <t>-3,62; 3,72</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>39,4; 53,65</t>
+          <t>-31,18; -10,23</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,19</t>
+          <t>8,08; 14,57</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>0,94; 9,0</t>
+          <t>0,62; 6,67</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>62,92; 74,0</t>
+          <t>-30,42; -14,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Provincia-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna condición</t>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,82; 25,97</t>
+          <t>9,56; 25,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 21,93</t>
+          <t>5,54; 22,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,06; 30,43</t>
+          <t>12,89; 30,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,57; 33,63</t>
+          <t>18,1; 33,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,92; 24,91</t>
+          <t>8,43; 24,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,72; 26,02</t>
+          <t>10,14; 25,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,13; 27,67</t>
+          <t>16,55; 28,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,88; 21,23</t>
+          <t>9,15; 21,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,0; 26,27</t>
+          <t>14,83; 26,79</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,71; 67,92</t>
+          <t>20,6; 67,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,5; 57,59</t>
+          <t>11,6; 57,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,57; 78,03</t>
+          <t>28,35; 78,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,98; 72,43</t>
+          <t>31,46; 71,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,62; 52,48</t>
+          <t>14,71; 51,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,64; 56,82</t>
+          <t>17,91; 55,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,81; 62,93</t>
+          <t>32,77; 64,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,6; 48,18</t>
+          <t>17,85; 49,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,38; 59,42</t>
+          <t>29,4; 60,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 12,28</t>
+          <t>-0,73; 12,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 17,25</t>
+          <t>3,8; 16,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 0,53</t>
+          <t>-13,37; 0,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 10,32</t>
+          <t>-1,9; 10,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 11,05</t>
+          <t>0,01; 11,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,64; -14,15</t>
+          <t>-25,07; -13,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 10,02</t>
+          <t>1,16; 10,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 12,53</t>
+          <t>3,71; 12,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -8,72</t>
+          <t>-18,16; -9,08</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 28,34</t>
+          <t>-1,42; 28,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,23; 39,74</t>
+          <t>7,65; 38,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 1,15</t>
+          <t>-26,91; 2,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 16,73</t>
+          <t>-2,77; 17,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 17,64</t>
+          <t>-0,06; 18,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,87; -22,89</t>
+          <t>-36,99; -22,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 18,5</t>
+          <t>2,26; 18,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,18; 23,51</t>
+          <t>6,28; 23,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,44; -16,2</t>
+          <t>-31,46; -16,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,59; 22,77</t>
+          <t>6,9; 22,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 15,71</t>
+          <t>0,31; 15,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 11,71</t>
+          <t>-3,75; 11,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 7,16</t>
+          <t>-7,33; 7,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 1,34</t>
+          <t>-14,4; 0,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,7; -10,08</t>
+          <t>-23,78; -9,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 13,34</t>
+          <t>2,31; 12,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 6,15</t>
+          <t>-4,33; 6,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,12; -1,41</t>
+          <t>-12,04; -1,83</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,73; 57,72</t>
+          <t>14,38; 54,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 38,74</t>
+          <t>0,68; 38,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 28,98</t>
+          <t>-7,51; 29,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 11,02</t>
+          <t>-10,29; 12,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 2,57</t>
+          <t>-20,03; 0,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,31; -15,77</t>
+          <t>-33,19; -15,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,93; 24,99</t>
+          <t>3,62; 22,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 11,46</t>
+          <t>-7,3; 12,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-20,51; -2,51</t>
+          <t>-20,35; -3,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 14,57</t>
+          <t>-0,19; 14,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 13,9</t>
+          <t>-0,86; 13,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 0,99</t>
+          <t>-15,36; 2,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 8,15</t>
+          <t>-4,74; 8,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 8,01</t>
+          <t>-5,71; 7,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-45,3; -16,9</t>
+          <t>-47,56; -17,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 9,56</t>
+          <t>-0,91; 9,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 9,4</t>
+          <t>-1,49; 8,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-30,19; -11,06</t>
+          <t>-29,85; -11,23</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 30,24</t>
+          <t>-0,17; 30,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 28,97</t>
+          <t>-1,64; 27,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 1,79</t>
+          <t>-28,52; 4,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 12,35</t>
+          <t>-6,61; 12,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 12,08</t>
+          <t>-7,71; 11,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-67,47; -25,76</t>
+          <t>-65,49; -25,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 16,64</t>
+          <t>-1,45; 15,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 16,33</t>
+          <t>-2,21; 15,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-48,5; -18,82</t>
+          <t>-48,75; -19,15</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 16,58</t>
+          <t>-2,84; 16,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 13,23</t>
+          <t>-6,48; 13,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-45,22; -29,12</t>
+          <t>-44,17; -28,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,41; 24,38</t>
+          <t>8,14; 24,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 7,58</t>
+          <t>-11,4; 7,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-62,41; -43,4</t>
+          <t>-60,05; -42,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,55; 18,45</t>
+          <t>4,91; 18,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 7,66</t>
+          <t>-5,66; 7,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-50,2; -38,11</t>
+          <t>-50,36; -38,08</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 35,93</t>
+          <t>-5,5; 35,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 30,08</t>
+          <t>-12,27; 30,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-81,56; -64,42</t>
+          <t>-81,35; -63,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10,66; 40,6</t>
+          <t>11,55; 42,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 12,01</t>
+          <t>-15,73; 12,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-87,9; -69,91</t>
+          <t>-87,83; -69,98</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,42; 34,09</t>
+          <t>7,57; 33,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 13,68</t>
+          <t>-9,37; 13,65</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-83,32; -69,97</t>
+          <t>-83,3; -69,58</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,16; 20,09</t>
+          <t>3,71; 20,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 7,12</t>
+          <t>-9,81; 7,32</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 15,57</t>
+          <t>-1,41; 14,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,31; 20,32</t>
+          <t>5,17; 20,21</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 5,3</t>
+          <t>-10,96; 5,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 1,14</t>
+          <t>-14,98; -0,17</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,52; 18,11</t>
+          <t>6,68; 18,01</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 4,33</t>
+          <t>-7,72; 4,17</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 5,03</t>
+          <t>-5,77; 5,08</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>5,68; 42,57</t>
+          <t>6,49; 44,89</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 15,6</t>
+          <t>-18,06; 15,94</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 33,42</t>
+          <t>-2,47; 32,38</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,39; 33,91</t>
+          <t>7,61; 33,8</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 8,95</t>
+          <t>-15,66; 8,51</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 1,89</t>
+          <t>-21,8; -0,25</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,72; 33,4</t>
+          <t>10,77; 32,49</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 7,98</t>
+          <t>-12,77; 7,44</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 9,29</t>
+          <t>-9,49; 9,1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>6,83; 18,27</t>
+          <t>6,03; 17,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 5,16</t>
+          <t>-7,09; 5,19</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-18,53; -6,7</t>
+          <t>-18,39; -6,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,08; 12,53</t>
+          <t>1,7; 12,7</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 0,47</t>
+          <t>-10,02; 0,8</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 16,19</t>
+          <t>-23,99; 16,49</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>5,67; 13,6</t>
+          <t>5,99; 13,6</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 1,28</t>
+          <t>-7,12; 1,3</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 12,11</t>
+          <t>-18,32; 14,03</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>13,84; 42,26</t>
+          <t>12,1; 41,05</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 11,82</t>
+          <t>-14,62; 12,19</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-38,31; -15,21</t>
+          <t>-38,09; -14,85</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>3,25; 21,56</t>
+          <t>2,71; 21,72</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 0,79</t>
+          <t>-15,96; 1,33</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-38,61; 26,36</t>
+          <t>-38,7; 29,03</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>10,01; 26,56</t>
+          <t>10,84; 26,38</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 2,46</t>
+          <t>-12,73; 2,49</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 22,7</t>
+          <t>-33,98; 27,46</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 1,27</t>
+          <t>-9,07; 1,36</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 5,19</t>
+          <t>-5,04; 5,34</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-40,91; -15,95</t>
+          <t>-41,91; -16,25</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 0,28</t>
+          <t>-9,5; 0,38</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 2,52</t>
+          <t>-7,31; 2,79</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-22,82; -13,31</t>
+          <t>-22,82; -13,47</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-8,21; -0,79</t>
+          <t>-7,74; -0,37</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 2,54</t>
+          <t>-4,47; 2,65</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-36,65; -16,82</t>
+          <t>-36,38; -16,62</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 2,51</t>
+          <t>-17,0; 2,93</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 10,65</t>
+          <t>-9,36; 11,23</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-77,38; -31,78</t>
+          <t>-78,78; -32,28</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 0,44</t>
+          <t>-14,44; 0,62</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 4,14</t>
+          <t>-11,09; 4,62</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-34,69; -21,92</t>
+          <t>-35,16; -22,1</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-13,9; -1,43</t>
+          <t>-13,1; -0,64</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 4,51</t>
+          <t>-7,47; 4,73</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-63,57; -29,6</t>
+          <t>-63,85; -29,5</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>5,07; 9,89</t>
+          <t>5,26; 10,26</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,46</t>
+          <t>1,55; 6,72</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-19,79; -6,13</t>
+          <t>-17,65; -5,95</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,82</t>
+          <t>3,25; 7,79</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,34</t>
+          <t>-2,55; 2,12</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-19,94; -6,5</t>
+          <t>-19,91; -6,66</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,06</t>
+          <t>4,83; 8,23</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,68</t>
+          <t>0,24; 3,71</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-17,11; -8,35</t>
+          <t>-16,75; -7,64</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>10,08; 21,02</t>
+          <t>10,68; 21,92</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>2,89; 13,8</t>
+          <t>3,11; 14,7</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-40,43; -12,86</t>
+          <t>-36,69; -12,61</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>4,75; 12,4</t>
+          <t>5,0; 12,48</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 3,72</t>
+          <t>-3,92; 3,37</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-31,18; -10,23</t>
+          <t>-31,03; -10,23</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>8,08; 14,57</t>
+          <t>8,45; 14,83</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,67</t>
+          <t>0,41; 6,73</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-30,42; -14,87</t>
+          <t>-29,91; -13,73</t>
         </is>
       </c>
     </row>
